--- a/biology/Botanique/Poirier_à_feuilles_en_cœur/Poirier_à_feuilles_en_cœur.xlsx
+++ b/biology/Botanique/Poirier_à_feuilles_en_cœur/Poirier_à_feuilles_en_cœur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poirier_%C3%A0_feuilles_en_c%C5%93ur</t>
+          <t>Poirier_à_feuilles_en_cœur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrus cordata · Poirasse
 Le Poirier à feuilles en cœur (Pyrus cordata), aussi appelé Poirasse, est une espèce de plantes de la famille des Rosacées et du genre Pyrus (Poiriers). C'est un arbuste sauvage originaire d'Europe atlantique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poirier_%C3%A0_feuilles_en_c%C5%93ur</t>
+          <t>Poirier_à_feuilles_en_cœur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce poirier est un arbrisseau ou arbuste peu élevé, d'une hauteur de 2 à 8 m[1], à rameaux un peu épineux, à bourgeons glabres ; les feuilles, caduques, sont largement ovales ou suborbiculaires, en cœur à la base, à limbe foliaire souvent plus court que le pétiole, un peu velues en dessous dans leur jeunesse, puis très glabres[2].
-Appareil reproducteur
-Les fleurs sont assez petites (2 à 3 cm de diamètre[1]) ; le calice est à lobes à la fin caducs ; les pétales sont glabres à l'onglet. Le fruit est petit, de 12-18 mm de diamètre, à peine charnu, globuleux ou en toupie, à pédoncules grêles, presque 2 fois plus longs que le fruit. La floraison a lieu en avril[2] ou en mai[1] ; la fructification en septembre[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poirier est un arbrisseau ou arbuste peu élevé, d'une hauteur de 2 à 8 m, à rameaux un peu épineux, à bourgeons glabres ; les feuilles, caduques, sont largement ovales ou suborbiculaires, en cœur à la base, à limbe foliaire souvent plus court que le pétiole, un peu velues en dessous dans leur jeunesse, puis très glabres.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poirier_%C3%A0_feuilles_en_c%C5%93ur</t>
+          <t>Poirier_à_feuilles_en_cœur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cet arbuste pousse dans les haies, les bois (chênaies particulièrement) et les terrains vagues[3], jusqu'à une altitude de 800 m[1]. 
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont assez petites (2 à 3 cm de diamètre) ; le calice est à lobes à la fin caducs ; les pétales sont glabres à l'onglet. Le fruit est petit, de 12-18 mm de diamètre, à peine charnu, globuleux ou en toupie, à pédoncules grêles, presque 2 fois plus longs que le fruit. La floraison a lieu en avril ou en mai ; la fructification en septembre.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Poirier_%C3%A0_feuilles_en_c%C5%93ur</t>
+          <t>Poirier_à_feuilles_en_cœur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poirier est originaire d'Europe atlantique ; on en trouve en Angleterre méridionale, Algérie et Perse[3]. En France, il est présent principalement dans l'ouest (Bretagne, Pays de la Loire) et le Centre[4].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste pousse dans les haies, les bois (chênaies particulièrement) et les terrains vagues, jusqu'à une altitude de 800 m. 
 </t>
         </is>
       </c>
@@ -590,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Poirier_%C3%A0_feuilles_en_c%C5%93ur</t>
+          <t>Poirier_à_feuilles_en_cœur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +628,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poirier est originaire d'Europe atlantique ; on en trouve en Angleterre méridionale, Algérie et Perse. En France, il est présent principalement dans l'ouest (Bretagne, Pays de la Loire) et le Centre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Poirier_à_feuilles_en_cœur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poirier_%C3%A0_feuilles_en_c%C5%93ur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cet arbuste a été considéré par de nombreux auteurs comme formant une sous-espèce ou une variété du poirier commun, le poirier cultivé (Pyrus communis). Voici la liste de ses synonymes :
 Pyrus boissieriana subsp. crenulata Browicz, 1972
@@ -627,7 +685,7 @@
 Pyrus longipes Balansa ex Coss. &amp; Durieu, 1855
 Pyrus macropoda Rehder, 1946
 Pyrus magyarica Terpó, 1960
-Pyrus pyraster var. cordata Gillot, 1883[4]</t>
+Pyrus pyraster var. cordata Gillot, 1883</t>
         </is>
       </c>
     </row>
